--- a/DS/Excel/lecture2.xlsx
+++ b/DS/Excel/lecture2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21club5sep\DS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ECAE70-F50C-4478-A2C8-731304DB9AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDDF9D1-8C34-435A-BFE1-1C79A2C5EC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{45D75731-A7C4-4BB5-B3D1-6F79D3B35545}"/>
   </bookViews>
@@ -659,7 +659,7 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <f>SUM(B2:C2)</f>
+        <f t="shared" ref="D2:D7" si="0">SUM(B2:C2)</f>
         <v>54</v>
       </c>
       <c r="F2">
@@ -682,7 +682,7 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <f>SUM(B3:C3)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
@@ -697,7 +697,7 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <f>SUM(B4:C4)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="E4" t="s">
@@ -718,7 +718,7 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <f>SUM(B5:C5)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -733,7 +733,7 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <f>SUM(B6:C6)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
@@ -748,7 +748,7 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <f>SUM(B7:C7)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
@@ -763,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D14" si="0">SUM(B8:C8)</f>
+        <f t="shared" ref="D8:D14" si="1">SUM(B8:C8)</f>
         <v>41</v>
       </c>
     </row>
@@ -778,7 +778,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
@@ -793,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
@@ -808,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
@@ -823,7 +823,7 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
@@ -853,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,6 +1274,10 @@
       <c r="H2" t="s">
         <v>32</v>
       </c>
+      <c r="I2">
+        <f>IF(F2&gt;=50, D2+$E$2, D2)</f>
+        <v>74</v>
+      </c>
       <c r="J2">
         <f>SUM(G:G)</f>
         <v>9</v>
@@ -1293,6 +1297,10 @@
       <c r="F3">
         <v>68</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I15" si="1">IF(F3&gt;=50, D3+$E$2, D3)</f>
+        <v>51</v>
+      </c>
       <c r="J3" t="s">
         <v>69</v>
       </c>
@@ -1314,6 +1322,10 @@
       <c r="F4">
         <v>77</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
       <c r="J4">
         <f>COUNT(B2:B15)</f>
         <v>10</v>
@@ -1339,6 +1351,10 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1366,6 +1382,10 @@
       <c r="H6" t="s">
         <v>32</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
       <c r="J6">
         <f>SUMIF(F2:F15, "&gt;=70", C2:C15)</f>
         <v>167</v>
@@ -1391,6 +1411,10 @@
       <c r="H7" t="s">
         <v>32</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1412,6 +1436,10 @@
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
       <c r="J8" t="s">
         <v>30</v>
       </c>
@@ -1433,6 +1461,10 @@
       <c r="F9">
         <v>33</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
       <c r="J9">
         <f>COUNTA(H2:H15)</f>
         <v>8</v>
@@ -1461,6 +1493,10 @@
       <c r="H10" t="s">
         <v>32</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
       <c r="J10" t="s">
         <v>29</v>
       </c>
@@ -1482,6 +1518,10 @@
       <c r="F11">
         <v>42</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
       <c r="J11">
         <f>COUNTIF(F2:F15, "&gt;=70")</f>
         <v>6</v>
@@ -1507,6 +1547,10 @@
       <c r="H12" t="s">
         <v>32</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1529,6 +1573,10 @@
       <c r="H13" t="s">
         <v>32</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1550,6 +1598,10 @@
       <c r="H14" t="s">
         <v>32</v>
       </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1573,6 +1625,10 @@
       </c>
       <c r="H15" t="s">
         <v>32</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
